--- a/Dados_Stegastes_renato.xlsx
+++ b/Dados_Stegastes_renato.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pos_Doc_Sinbiose\Reef_fish_course_CEBIMar\dados\stegastes_behavior\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E66431A-EBAD-4296-8860-85A86026BE3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="26">
   <si>
     <t>individual</t>
   </si>
@@ -91,12 +97,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,10 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,6 +150,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -147,7 +160,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,9 +198,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,9 +233,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +285,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,1431 +477,1585 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.39999999999999997</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.39999999999999997</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.40902777777777777</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4">
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.40902777777777777</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.40902777777777777</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7">
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C8" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C9" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C10" s="2">
         <v>0.42152777777777778</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10">
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C11" s="2">
         <v>0.42152777777777778</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C12" s="2">
         <v>0.42708333333333331</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C13" s="2">
         <v>0.42708333333333331</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C14" s="2">
         <v>0.43472222222222223</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
         <v>6</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14">
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.43472222222222223</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
         <v>6</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15">
+      <c r="H15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C16" s="2">
         <v>0.43958333333333338</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16">
+      <c r="H16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C17" s="2">
         <v>0.43958333333333338</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
+        <v>44987</v>
+      </c>
+      <c r="C18" s="2">
         <v>0.43958333333333338</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C19" s="2">
         <v>0.3923611111111111</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C20" s="2">
         <v>0.39444444444444443</v>
       </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C21" s="2">
         <v>0.3979166666666667</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C22" s="2">
         <v>0.3979166666666667</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C23" s="2">
         <v>0.3979166666666667</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23">
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23">
         <v>3</v>
       </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C24" s="2">
         <v>0.3979166666666667</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1">
-        <v>10</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24">
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24">
         <v>4</v>
       </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C25" s="2">
         <v>0.40138888888888885</v>
       </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
         <v>11</v>
       </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C26" s="2">
         <v>0.40138888888888885</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1">
         <v>11</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C27" s="2">
         <v>0.40138888888888885</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1">
         <v>11</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27">
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27">
         <v>3</v>
       </c>
-      <c r="G27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C28" s="2">
         <v>0.40138888888888885</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1">
         <v>11</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28">
+      <c r="F28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28">
         <v>4</v>
       </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C29" s="2">
         <v>0.40138888888888885</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1">
         <v>11</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29">
+      <c r="F29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29">
         <v>5</v>
       </c>
-      <c r="G29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C30" s="2">
         <v>0.40138888888888885</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
         <v>11</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30">
+      <c r="F30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30">
         <v>6</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>17</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
         <v>19</v>
       </c>
-      <c r="J30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C31" s="2">
         <v>0.40625</v>
       </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1">
         <v>12</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C32" s="2">
         <v>0.40625</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1">
         <v>12</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32">
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C33" s="2">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1">
         <v>13</v>
       </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C34" s="2">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1">
         <v>13</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
         <v>17</v>
       </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
         <v>19</v>
       </c>
-      <c r="J34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C35" s="2">
         <v>0.41180555555555554</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1">
         <v>13</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35">
+      <c r="F35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35">
         <v>3</v>
       </c>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C36" s="2">
         <v>0.41736111111111113</v>
       </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1">
         <v>14</v>
       </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C37" s="2">
         <v>0.41736111111111113</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1">
         <v>14</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="F37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C38" s="2">
         <v>0.41736111111111113</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1">
         <v>14</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38">
+      <c r="F38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38">
         <v>3</v>
       </c>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C39" s="2">
         <v>0.42499999999999999</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1">
         <v>15</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>14</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C40" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1">
         <v>16</v>
       </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40">
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C41" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1">
         <v>16</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="F41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C42" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1">
         <v>16</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42">
+      <c r="F42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42">
         <v>3</v>
       </c>
-      <c r="G42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C43" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1">
         <v>16</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43">
+      <c r="F43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43">
         <v>4</v>
       </c>
-      <c r="G43" t="s">
-        <v>10</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C44" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1">
         <v>16</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44">
+      <c r="F44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44">
         <v>5</v>
       </c>
-      <c r="G44" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C45" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1">
         <v>16</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45">
+      <c r="F45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45">
         <v>6</v>
       </c>
-      <c r="G45" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C46" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1">
         <v>16</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46">
-        <v>7</v>
-      </c>
-      <c r="G46" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C47" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1">
         <v>16</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47">
-        <v>8</v>
-      </c>
-      <c r="G47" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="F47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C48" s="2">
         <v>0.43402777777777773</v>
       </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1">
         <v>17</v>
       </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48">
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C49" s="2">
         <v>0.43402777777777773</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1">
         <v>17</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="F49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C50" s="2">
         <v>0.43402777777777773</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1">
         <v>17</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50">
+      <c r="F50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50">
         <v>3</v>
       </c>
-      <c r="G50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50">
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
+        <v>44988</v>
+      </c>
+      <c r="C51" s="2">
         <v>0.43402777777777773</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1">
         <v>17</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51">
+      <c r="F51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51">
         <v>4</v>
       </c>
-      <c r="G51" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1864,7 +2065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1876,7 +2077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
